--- a/20231018_大手企業の貧弱な開発環境/23_IEEE2023.xlsx
+++ b/20231018_大手企業の貧弱な開発環境/23_IEEE2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20231018_大手企業の貧弱な開発環境\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3872A4-A270-4FA3-9074-69005823D1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4722461-56E9-4CD0-966A-07082CB66297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A13CE487-B3C6-4B37-9F25-44DA106E3DDB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>開発言語</t>
   </si>
@@ -148,6 +148,108 @@
   </si>
   <si>
     <t>Shell スクリプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Verilog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rust</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cobol</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VHDL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アセンブリ言語</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cuda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fortran</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mathematica</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Elixir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arduino</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Julia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラダー言語</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pascal/Delphi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clojure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lua</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Elm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Erlang</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lisp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -221,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +337,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,9 +510,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:f>Sheet1!$C$5:$C$30</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>SQL</c:v>
                 </c:pt>
@@ -437,16 +542,64 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>SAS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TypeScript</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Matlab</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Visual Basic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Perl</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PHP</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Kotlin</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>WebAssembly</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Objective-C</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Grooby</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>F#</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>LabView</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:f>Sheet1!$D$5:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -476,6 +629,54 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.17369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.4700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8500000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3300000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,16 +1401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1557,10 +1758,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1883,6 +2084,226 @@
         <v>2.3300000000000001E-2</v>
       </c>
     </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <v>31</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <v>32</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="3">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="3">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="3">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="3">
+        <v>36</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="3">
+        <v>37</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="3">
+        <v>38</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="4">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="3">
+        <v>39</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="3">
+        <v>40</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="3">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="3">
+        <v>42</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3">
+        <v>43</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="3">
+        <v>44</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="3">
+        <v>45</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="3">
+        <v>46</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="3">
+        <v>47</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" s="3">
+        <v>48</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="3">
+        <v>49</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="3">
+        <v>50</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:D25">
     <sortCondition descending="1" ref="D5:D25"/>
@@ -1892,7 +2313,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3B8FF878-69A1-4B65-955C-86725B6F1FB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>